--- a/片仮名（かたかな）/片假名.xlsx
+++ b/片仮名（かたかな）/片假名.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\片仮名（かたかな）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2782887B-F850-4CD5-84B2-07268D80C5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77EB7F0-9568-4F61-AC12-9957E80411DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9348" yWindow="1284" windowWidth="11640" windowHeight="10968" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
   <si>
     <t>ハザードマップ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +467,10 @@
   </si>
   <si>
     <t>ん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つまる</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618F2B77-BE9A-4518-A8E5-1D104917EBB2}">
   <dimension ref="B1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1355,6 +1359,9 @@
       <c r="M13" t="s">
         <v>95</v>
       </c>
+      <c r="P13" s="9" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="14" spans="2:18" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" s="9" t="s">
@@ -1541,15 +1548,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1560,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/片仮名（かたかな）/片假名.xlsx
+++ b/片仮名（かたかな）/片假名.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\片仮名（かたかな）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77EB7F0-9568-4F61-AC12-9957E80411DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD909573-2B74-4F71-9A42-EC0D49AC534C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5916" yWindow="1176" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
   <si>
     <t>ハザードマップ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,6 +472,70 @@
   </si>
   <si>
     <t>つまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アイデア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めにゅー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あいであ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ニュース</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にゅーす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちぇっく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>チェック</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロビー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろびー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lobby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,14 +736,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618F2B77-BE9A-4518-A8E5-1D104917EBB2}">
   <dimension ref="B1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1322,7 +1387,7 @@
       <c r="I11" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="21" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1331,7 +1396,7 @@
         <v>103</v>
       </c>
       <c r="I12" s="19"/>
-      <c r="J12" s="21"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="9" t="s">
         <v>97</v>
       </c>
@@ -1347,7 +1412,7 @@
       <c r="I13" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="20" t="s">
         <v>84</v>
       </c>
       <c r="K13" s="18" t="s">
@@ -1381,7 +1446,7 @@
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="22"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="9" t="s">
@@ -1400,7 +1465,7 @@
       <c r="F15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="21" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1411,7 +1476,7 @@
       <c r="E16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:11" ht="18" x14ac:dyDescent="0.45">
       <c r="F17" s="9" t="s">
@@ -1548,15 +1613,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1568,7 +1633,7 @@
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D6" sqref="C1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1685,4 +1750,78 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D3AC0E-B1F9-47DA-BE8C-B334ED15E532}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/片仮名（かたかな）/片假名.xlsx
+++ b/片仮名（かたかな）/片假名.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\片仮名（かたかな）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD909573-2B74-4F71-9A42-EC0D49AC534C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5485FC4-90B4-46F7-BF93-869B8E6639B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5916" yWindow="1176" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="151">
   <si>
     <t>ハザードマップ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -536,6 +537,119 @@
   </si>
   <si>
     <t>大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テーマ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てーま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题，题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ウエ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>べん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ベン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ｖ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>エベント</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パンフレット</t>
+  </si>
+  <si>
+    <t>pamphlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小册子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぱんふれっと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+  </si>
+  <si>
+    <t>たーとる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>le</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タートル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぱそこん</t>
+  </si>
+  <si>
+    <t>personal computer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パソコン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ラジオ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>らじお</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,14 +850,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1024,605 +1138,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618F2B77-BE9A-4518-A8E5-1D104917EBB2}">
-  <dimension ref="B1:R25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D3AC0E-B1F9-47DA-BE8C-B334ED15E532}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="H1" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="2:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="B2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="B4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="B5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="B8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="B9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="B10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="B11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="H13" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" t="s">
-        <v>95</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="B14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="B15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" ht="18" x14ac:dyDescent="0.45">
-      <c r="B16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="F17" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="C18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="C22" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="H23" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="H24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="J25" s="9"/>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="J15:J16"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1753,71 +1403,663 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D3AC0E-B1F9-47DA-BE8C-B334ED15E532}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618F2B77-BE9A-4518-A8E5-1D104917EBB2}">
+  <dimension ref="B1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="H1" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="B3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="B5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="B6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="B7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="B8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="B9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="B10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="B11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="H13" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="B14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="B16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:11" ht="18" x14ac:dyDescent="0.45">
+      <c r="F17" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="18" x14ac:dyDescent="0.45">
+      <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="18" x14ac:dyDescent="0.45">
+      <c r="B19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="18" x14ac:dyDescent="0.45">
+      <c r="B20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="18" x14ac:dyDescent="0.45">
+      <c r="B21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="18" x14ac:dyDescent="0.45">
+      <c r="C22" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="18" x14ac:dyDescent="0.45">
+      <c r="H23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="18" x14ac:dyDescent="0.45">
+      <c r="H24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="18" x14ac:dyDescent="0.45">
+      <c r="J25" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="J11:J12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE36052-600A-4B36-A048-CBC598A054E9}">
+  <dimension ref="A2:D4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>109</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>114</v>
+        <v>129</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>121</v>
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/片仮名（かたかな）/片假名.xlsx
+++ b/片仮名（かたかな）/片假名.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\片仮名（かたかな）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5485FC4-90B4-46F7-BF93-869B8E6639B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9789AA-6F0D-4CBD-AA6E-C62CAF7D955D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7812" yWindow="468" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="160">
   <si>
     <t>ハザードマップ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -650,6 +650,40 @@
   </si>
   <si>
     <t>radio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れしぴ</t>
+  </si>
+  <si>
+    <t>レシピ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receipt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>センター</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せんたー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+  </si>
+  <si>
+    <t>てーぶる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -850,14 +884,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1139,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D3AC0E-B1F9-47DA-BE8C-B334ED15E532}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1270,6 +1304,39 @@
       </c>
       <c r="C10" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +1839,7 @@
       <c r="I11" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="21" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1781,7 +1848,7 @@
         <v>103</v>
       </c>
       <c r="I12" s="19"/>
-      <c r="J12" s="21"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="9" t="s">
         <v>97</v>
       </c>
@@ -1797,7 +1864,7 @@
       <c r="I13" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="20" t="s">
         <v>84</v>
       </c>
       <c r="K13" s="18" t="s">
@@ -1831,7 +1898,7 @@
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="22"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="9" t="s">
@@ -1850,7 +1917,7 @@
       <c r="F15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="21" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1861,7 +1928,7 @@
       <c r="E16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:11" ht="18" x14ac:dyDescent="0.45">
       <c r="F17" s="9" t="s">
@@ -1998,15 +2065,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/片仮名（かたかな）/片假名.xlsx
+++ b/片仮名（かたかな）/片假名.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\片仮名（かたかな）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9789AA-6F0D-4CBD-AA6E-C62CAF7D955D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3886ACA3-DD11-43F5-9039-44127DA9F4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7812" yWindow="468" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="168">
   <si>
     <t>ハザードマップ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,6 +684,35 @@
   </si>
   <si>
     <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ディスカウント</t>
+  </si>
+  <si>
+    <t>でぃすかうんと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>チェックアウト</t>
+  </si>
+  <si>
+    <t>ちぇっくあうと</t>
+  </si>
+  <si>
+    <t>checkout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结账，退房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打折</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,14 +913,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D3AC0E-B1F9-47DA-BE8C-B334ED15E532}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1337,6 +1366,34 @@
       </c>
       <c r="C13" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1839,7 +1896,7 @@
       <c r="I11" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="20" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1848,7 +1905,7 @@
         <v>103</v>
       </c>
       <c r="I12" s="19"/>
-      <c r="J12" s="22"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="9" t="s">
         <v>97</v>
       </c>
@@ -1864,7 +1921,7 @@
       <c r="I13" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="22" t="s">
         <v>84</v>
       </c>
       <c r="K13" s="18" t="s">
@@ -1898,7 +1955,7 @@
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="9" t="s">
@@ -1917,7 +1974,7 @@
       <c r="F15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="20" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1928,7 +1985,7 @@
       <c r="E16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:11" ht="18" x14ac:dyDescent="0.45">
       <c r="F17" s="9" t="s">
@@ -2065,15 +2122,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="J15:J16"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="J15:J16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/片仮名（かたかな）/片假名.xlsx
+++ b/片仮名（かたかな）/片假名.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\片仮名（かたかな）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3886ACA3-DD11-43F5-9039-44127DA9F4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F159740-57FB-4F1C-920B-91C956B0C752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -886,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -922,6 +922,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1204,12 +1205,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D3AC0E-B1F9-47DA-BE8C-B334ED15E532}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1530,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618F2B77-BE9A-4518-A8E5-1D104917EBB2}">
   <dimension ref="B1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1636,7 +1638,7 @@
       <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1645,7 +1647,7 @@
       <c r="E4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="23" t="s">
         <v>38</v>
       </c>
       <c r="N4" s="9" t="s">
@@ -1671,7 +1673,7 @@
       <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -1824,11 +1826,11 @@
         <v>58</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="23" t="s">
         <v>60</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -2122,15 +2124,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J13:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
